--- a/project_1/part_1/Bug_report.xlsx
+++ b/project_1/part_1/Bug_report.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qa-testing-portfolio\project_1\part_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F3A20B-789B-4C21-9FE1-A1EEF65BC1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login_bugs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +24,104 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>BUG-LOGIN-01</t>
+  </si>
+  <si>
+    <t>BUG-LOGIN-02</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-08</t>
+  </si>
+  <si>
+    <t>Application does not provide specific vaildation for SQL injection input in username field</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>OrangeHRM Demo-Web</t>
+  </si>
+  <si>
+    <t>1. Navigate to Login page
+2. Enter 'OR '1'='1 in username field
+3. Enter any password
+4. Click Login</t>
+  </si>
+  <si>
+    <t>System should block SQL injection input and display appropriate security validation message</t>
+  </si>
+  <si>
+    <t>Login failed with generic “Invalid credentials” message; no specific input validation or security warning displayed</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-15</t>
+  </si>
+  <si>
+    <t>Application does not provide specific vaildation for SQL injection input in password field</t>
+  </si>
+  <si>
+    <t>1. Navigate to Login page
+2. Enter valid username 
+3. Enter 'OR '1'='1 in password field
+4. Click Login</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,8 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +431,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>